--- a/biology/Histoire de la zoologie et de la botanique/Jean_Carl/Jean_Carl.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Carl/Jean_Carl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Carl, de son nom de naissance Johann Carl, né le 28 novembre 1877 à Scuol (Grisons) et mort le 7 juin 1944 à Genève, est un entomologiste suisse. Il travaille au Muséum d'histoire naturelle de Genève de 1900 à 1944, étudiant principalement les myriapodes, mais aussi les orthoptères, phasmes, isopodes et collemboles dont il décrit plus de 670 taxons dont plus de 500 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Carlius Uvarov, 1939  est dédié à Jean Carl, ainsi que les espèces suivantes :
 Ischyropsalis carli Lessert, 1905
@@ -545,7 +559,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl est le descripteur des deux super-familles de myriapodes :
 Pygmaeosomatoidea Carl, 1941
